--- a/cropped_and_labeled_image_data/2004_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2004_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,968 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F2_P13_Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F2_P13_Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F2_P18_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F2_P18_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F3_P20_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F3_P20_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F4_P23_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F4_P23_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F5_P23_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F5_P23_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F6_P25_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F6_P25_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F7_P25_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E8" t="n">
+        <v>26</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F7_P25_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cardinal et al._2004_OrgSci_Balancing and Rebalancing in the Creation and Evolution of Org Control.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F1_P12_Cardinal et al._2004_OrgSci_Balancing and Rebalancing in the Creation and Evolution of Org Control.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P12_Cardinal et al._2004_OrgSci_Balancing and Rebalancing in the Creation and Evolution of Org Control.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F1_P8_Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P8_Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F1_P7_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P7_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F2_P12_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F2_P12_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F3_P13_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F3_P13_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F4_P15_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F4_P15_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>data map</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F2_P26_Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E15" t="n">
+        <v>27</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F2_P26_Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F2_P9_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F2_P9_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F2_P10_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F2_P10_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F1_P4_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P4_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F2_P8_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F2_P8_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F3_P14_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F3_P14_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F4_P14_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F4_P14_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F1_P9_Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P9_Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F2_P13_Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F2_P13_Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F1_P3_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P3_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F2_P5_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F2_P5_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F3_P8_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F3_P8_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F4_P13_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F4_P13_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2004_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2004_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,6 +1442,191 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F1_P11_Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P11_Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F1_P13_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P13_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F1_P18_Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E30" t="n">
+        <v>19</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P18_Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Maitlis &amp; Ozcelik_2004_OrgSci_Toxic Decision Processes.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F1_P8_Maitlis &amp; Ozcelik_2004_OrgSci_Toxic Decision Processes.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P8_Maitlis &amp; Ozcelik_2004_OrgSci_Toxic Decision Processes.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Washington_2004_OrgStudies_Field Approaches to Institutional Change.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F1_P8_Washington_2004_OrgStudies_Field Approaches to Institutional Change.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>final_figures/2004/F1_P8_Washington_2004_OrgStudies_Field Approaches to Institutional Change.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2004_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2004_cropped_and_labeled_figs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -584,7 +584,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>cycle</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -806,7 +806,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -991,7 +991,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I15" t="b">

--- a/cropped_and_labeled_image_data/2004_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2004_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,11 +539,8 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -587,9 +576,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -621,11 +607,8 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -658,11 +641,8 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -695,11 +675,8 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -732,11 +709,8 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -769,11 +743,8 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -809,9 +780,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,9 +814,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -883,9 +848,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,9 +882,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -957,9 +916,6 @@
           <t>data map</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,9 +950,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,9 +984,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1068,9 +1018,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1105,9 +1052,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,9 +1086,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1176,11 +1117,8 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1216,9 +1154,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1250,11 +1185,8 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1287,11 +1219,8 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1327,9 +1256,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1364,9 +1290,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1401,9 +1324,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1438,9 +1358,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1475,9 +1392,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1512,9 +1426,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1549,9 +1460,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1586,9 +1494,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1620,11 +1525,8 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
   </sheetData>
